--- a/output/carin-rtpbc-Coverage.xlsx
+++ b/output/carin-rtpbc-Coverage.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$100</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3222" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3748" uniqueCount="409">
   <si>
     <t>Path</t>
   </si>
@@ -923,7 +923,7 @@
 </t>
   </si>
   <si>
-    <t>Identifiers used by the payer/PBM to located the patient's coverage. IIN (BIN) number, Processor Control Number (PCN), pharmacy benefit Group ID and patient's PBM Member ID</t>
+    <t>Identifiers used by the payer/PBM to located the patient's coverage. IIN (BIN) number, Processor Control Number (PCN), pharmacy benefit Group ID and patient's PBM Member ID. When returned by a discount pricing source, used to convey coupon information (either an issued discount coupon or a key that can be used to request a discount coupon).</t>
   </si>
   <si>
     <t>Populate with identifiers retrieved from an eligibility service or other source agreed between trading partners</t>
@@ -936,9 +936,6 @@
 </t>
   </si>
   <si>
-    <t>The value of the .type element indicates the type of coverage identifier  (rxbin=IIN (BIN), rxpcn=PCN, group=Group ID, rxid=PBM Member ID)</t>
-  </si>
-  <si>
     <t>closed</t>
   </si>
   <si>
@@ -977,10 +974,10 @@
     <t>The insurer issued label for a specific health card value.</t>
   </si>
   <si>
-    <t>The policy classifications, eg. Group, Plan, Class, etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/coverage-class</t>
+    <t>Expanded Coverage Class Value Set (incl coupon concepts)</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/carin/ValueSet/rtpbc-expanded-coverage-class</t>
   </si>
   <si>
     <t>Coverage.class.value</t>
@@ -1039,6 +1036,12 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>The policy classifications, eg. Group, Plan, Class, etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/coverage-class</t>
+  </si>
+  <si>
     <t>pcn</t>
   </si>
   <si>
@@ -1083,6 +1086,40 @@
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/coverage-class"/&gt;
     &lt;code value="rxid"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>coupon-request</t>
+  </si>
+  <si>
+    <t>Coupon Request</t>
+  </si>
+  <si>
+    <t>A key used to request a discount coupon.</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin/CodeSystem/rtpbc-coupon-coverage-class"/&gt;
+    &lt;code value="coupon-request"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>coupon</t>
+  </si>
+  <si>
+    <t>Coupon</t>
+  </si>
+  <si>
+    <t>A discount coupon.</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin/CodeSystem/rtpbc-coupon-coverage-class"/&gt;
+    &lt;code value="coupon"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1421,7 +1458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO86"/>
+  <dimension ref="A1:AO100"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1454,10 +1491,10 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="140.14453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.75" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.00390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="126.7109375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="255.0" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.58984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -5681,13 +5718,13 @@
         <v>295</v>
       </c>
       <c r="AB36" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD36" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>288</v>
@@ -5725,7 +5762,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5840,7 +5877,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5957,11 +5994,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5983,10 +6020,10 @@
         <v>97</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>100</v>
@@ -6041,7 +6078,7 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6076,7 +6113,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6102,14 +6139,14 @@
         <v>132</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -6137,11 +6174,11 @@
         <v>179</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>310</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>42</v>
       </c>
@@ -6158,7 +6195,7 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>51</v>
@@ -6193,7 +6230,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6219,16 +6256,16 @@
         <v>53</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -6277,7 +6314,7 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>51</v>
@@ -6301,18 +6338,18 @@
         <v>42</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>318</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6338,14 +6375,14 @@
         <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
@@ -6394,7 +6431,7 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6418,13 +6455,13 @@
         <v>42</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AN42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>318</v>
       </c>
     </row>
     <row r="43">
@@ -6432,13 +6469,13 @@
         <v>288</v>
       </c>
       <c r="B43" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D43" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="E43" t="s" s="2">
         <v>43</v>
@@ -6459,13 +6496,13 @@
         <v>291</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>294</v>
@@ -6552,7 +6589,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6667,7 +6704,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6784,11 +6821,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6810,10 +6847,10 @@
         <v>97</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>100</v>
@@ -6868,7 +6905,7 @@
         <v>42</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6903,7 +6940,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6929,14 +6966,14 @@
         <v>132</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>42</v>
@@ -6946,7 +6983,7 @@
         <v>42</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>42</v>
@@ -6964,10 +7001,10 @@
         <v>179</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>42</v>
@@ -6985,7 +7022,7 @@
         <v>42</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>51</v>
@@ -7020,7 +7057,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7046,16 +7083,16 @@
         <v>53</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
@@ -7104,7 +7141,7 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>51</v>
@@ -7128,18 +7165,18 @@
         <v>42</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AN48" t="s" s="2">
+      <c r="AO48" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>318</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7165,14 +7202,14 @@
         <v>53</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -7221,7 +7258,7 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7245,13 +7282,13 @@
         <v>42</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AN49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>318</v>
       </c>
     </row>
     <row r="50">
@@ -7259,13 +7296,13 @@
         <v>288</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E50" t="s" s="2">
         <v>43</v>
@@ -7286,13 +7323,13 @@
         <v>291</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>294</v>
@@ -7379,7 +7416,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7494,7 +7531,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7611,11 +7648,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7637,10 +7674,10 @@
         <v>97</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>100</v>
@@ -7695,7 +7732,7 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7730,7 +7767,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7756,14 +7793,14 @@
         <v>132</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>42</v>
@@ -7773,7 +7810,7 @@
         <v>42</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>42</v>
@@ -7791,10 +7828,10 @@
         <v>179</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>42</v>
@@ -7812,7 +7849,7 @@
         <v>42</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>51</v>
@@ -7847,7 +7884,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7873,16 +7910,16 @@
         <v>53</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>42</v>
@@ -7931,7 +7968,7 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>51</v>
@@ -7955,18 +7992,18 @@
         <v>42</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>318</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7992,14 +8029,14 @@
         <v>53</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>42</v>
@@ -8048,7 +8085,7 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8072,13 +8109,13 @@
         <v>42</v>
       </c>
       <c r="AM56" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>318</v>
       </c>
     </row>
     <row r="57">
@@ -8086,13 +8123,13 @@
         <v>288</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E57" t="s" s="2">
         <v>43</v>
@@ -8113,13 +8150,13 @@
         <v>291</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>294</v>
@@ -8206,7 +8243,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8321,7 +8358,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8438,11 +8475,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8464,10 +8501,10 @@
         <v>97</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>100</v>
@@ -8522,7 +8559,7 @@
         <v>42</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8557,7 +8594,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8583,14 +8620,14 @@
         <v>132</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>42</v>
@@ -8600,7 +8637,7 @@
         <v>42</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>42</v>
@@ -8618,10 +8655,10 @@
         <v>179</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>42</v>
@@ -8639,7 +8676,7 @@
         <v>42</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>51</v>
@@ -8674,7 +8711,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8700,16 +8737,16 @@
         <v>53</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>42</v>
@@ -8758,7 +8795,7 @@
         <v>42</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>51</v>
@@ -8782,18 +8819,18 @@
         <v>42</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>318</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8819,14 +8856,14 @@
         <v>53</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>42</v>
@@ -8875,7 +8912,7 @@
         <v>42</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -8899,13 +8936,13 @@
         <v>42</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AN63" t="s" s="2">
+      <c r="AO63" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>318</v>
       </c>
     </row>
     <row r="64">
@@ -8913,13 +8950,13 @@
         <v>288</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E64" t="s" s="2">
         <v>43</v>
@@ -8940,13 +8977,13 @@
         <v>291</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>294</v>
@@ -9033,7 +9070,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9148,7 +9185,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9265,11 +9302,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9291,10 +9328,10 @@
         <v>97</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>100</v>
@@ -9349,7 +9386,7 @@
         <v>42</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9384,7 +9421,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9410,14 +9447,14 @@
         <v>132</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>42</v>
@@ -9427,7 +9464,7 @@
         <v>42</v>
       </c>
       <c r="R68" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>42</v>
@@ -9445,10 +9482,10 @@
         <v>179</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>42</v>
@@ -9466,7 +9503,7 @@
         <v>42</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>51</v>
@@ -9501,7 +9538,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9527,16 +9564,16 @@
         <v>53</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>42</v>
@@ -9585,7 +9622,7 @@
         <v>42</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>51</v>
@@ -9609,18 +9646,18 @@
         <v>42</v>
       </c>
       <c r="AM69" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AN69" t="s" s="2">
+      <c r="AO69" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>318</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9646,14 +9683,14 @@
         <v>53</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>42</v>
@@ -9702,7 +9739,7 @@
         <v>42</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -9726,24 +9763,28 @@
         <v>42</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AN70" t="s" s="2">
+      <c r="AO70" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AO70" t="s" s="2">
-        <v>318</v>
-      </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="B71" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="C71" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="E71" t="s" s="2">
         <v>43</v>
       </c>
@@ -9751,26 +9792,28 @@
         <v>51</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>341</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>42</v>
@@ -9819,13 +9862,13 @@
         <v>42</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>339</v>
+        <v>288</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>42</v>
@@ -9846,7 +9889,7 @@
         <v>42</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>42</v>
@@ -9854,7 +9897,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9874,21 +9917,19 @@
         <v>42</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>345</v>
+        <v>203</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>346</v>
+        <v>204</v>
       </c>
       <c r="M72" s="2"/>
-      <c r="N72" t="s" s="2">
-        <v>347</v>
-      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>42</v>
       </c>
@@ -9936,7 +9977,7 @@
         <v>42</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -9948,19 +9989,19 @@
         <v>42</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>348</v>
+        <v>42</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>42</v>
@@ -9971,11 +10012,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>350</v>
+        <v>96</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9994,20 +10035,18 @@
         <v>42</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>291</v>
+        <v>97</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>351</v>
+        <v>98</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>352</v>
+        <v>208</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>42</v>
       </c>
@@ -10055,7 +10094,7 @@
         <v>42</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>349</v>
+        <v>212</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10067,13 +10106,13 @@
         <v>42</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>42</v>
@@ -10090,39 +10129,43 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>355</v>
+        <v>299</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>42</v>
+        <v>300</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>203</v>
+        <v>301</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>42</v>
       </c>
@@ -10170,25 +10213,25 @@
         <v>42</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>205</v>
+        <v>303</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>206</v>
+        <v>94</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>42</v>
@@ -10205,18 +10248,18 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>356</v>
+        <v>304</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>42</v>
@@ -10225,21 +10268,21 @@
         <v>42</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>98</v>
+        <v>305</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>42</v>
       </c>
@@ -10248,7 +10291,7 @@
         <v>42</v>
       </c>
       <c r="R75" t="s" s="2">
-        <v>42</v>
+        <v>343</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>42</v>
@@ -10263,13 +10306,13 @@
         <v>42</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>42</v>
+        <v>327</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>42</v>
@@ -10287,25 +10330,25 @@
         <v>42</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>212</v>
+        <v>304</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>42</v>
@@ -10322,42 +10365,42 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>301</v>
+        <v>42</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>100</v>
+        <v>313</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>106</v>
+        <v>314</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>42</v>
@@ -10406,42 +10449,42 @@
         <v>42</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>42</v>
+        <v>315</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>42</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10464,19 +10507,17 @@
         <v>52</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>42</v>
@@ -10501,13 +10542,13 @@
         <v>42</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>363</v>
+        <v>42</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>364</v>
+        <v>42</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>42</v>
@@ -10525,7 +10566,7 @@
         <v>42</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
@@ -10549,53 +10590,57 @@
         <v>42</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>42</v>
+        <v>315</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>42</v>
+        <v>317</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B78" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="C78" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="E78" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>366</v>
+        <v>291</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>368</v>
+        <v>324</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>370</v>
+        <v>294</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>42</v>
@@ -10644,13 +10689,13 @@
         <v>42</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>365</v>
+        <v>288</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>42</v>
@@ -10668,18 +10713,18 @@
         <v>42</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>316</v>
+        <v>42</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>317</v>
+        <v>42</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>318</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>371</v>
+        <v>297</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10690,7 +10735,7 @@
         <v>43</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>42</v>
@@ -10702,18 +10747,16 @@
         <v>42</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>291</v>
+        <v>53</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>372</v>
+        <v>203</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>373</v>
+        <v>204</v>
       </c>
       <c r="M79" s="2"/>
-      <c r="N79" t="s" s="2">
-        <v>354</v>
-      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>42</v>
       </c>
@@ -10761,25 +10804,25 @@
         <v>42</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>371</v>
+        <v>205</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>42</v>
@@ -10796,18 +10839,18 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>374</v>
+        <v>298</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>42</v>
@@ -10819,15 +10862,17 @@
         <v>42</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>42</v>
@@ -10876,19 +10921,19 @@
         <v>42</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>42</v>
@@ -10911,11 +10956,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>375</v>
+        <v>299</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>96</v>
+        <v>300</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10928,24 +10973,26 @@
         <v>42</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J81" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>98</v>
+        <v>301</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>208</v>
+        <v>302</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="N81" s="2"/>
+      <c r="N81" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>42</v>
       </c>
@@ -10993,7 +11040,7 @@
         <v>42</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>212</v>
+        <v>303</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
@@ -11011,7 +11058,7 @@
         <v>42</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>206</v>
+        <v>94</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>42</v>
@@ -11028,42 +11075,40 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>376</v>
+        <v>304</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>301</v>
+        <v>42</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>106</v>
+        <v>307</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>42</v>
@@ -11073,7 +11118,7 @@
         <v>42</v>
       </c>
       <c r="R82" t="s" s="2">
-        <v>42</v>
+        <v>347</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>42</v>
@@ -11088,13 +11133,13 @@
         <v>42</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>42</v>
+        <v>327</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>42</v>
@@ -11115,22 +11160,22 @@
         <v>304</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>42</v>
@@ -11147,7 +11192,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>377</v>
+        <v>310</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11170,17 +11215,19 @@
         <v>52</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>378</v>
+        <v>311</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="N83" t="s" s="2">
-        <v>380</v>
+        <v>314</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>42</v>
@@ -11205,13 +11252,13 @@
         <v>42</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>381</v>
+        <v>42</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>382</v>
+        <v>42</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>383</v>
+        <v>42</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>42</v>
@@ -11229,7 +11276,7 @@
         <v>42</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>377</v>
+        <v>310</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>51</v>
@@ -11253,18 +11300,18 @@
         <v>42</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>42</v>
+        <v>315</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>42</v>
+        <v>317</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>384</v>
+        <v>318</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11287,17 +11334,17 @@
         <v>52</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>385</v>
+        <v>319</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>386</v>
+        <v>320</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>387</v>
+        <v>321</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>42</v>
@@ -11346,7 +11393,7 @@
         <v>42</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>384</v>
+        <v>318</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -11370,18 +11417,18 @@
         <v>42</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>42</v>
+        <v>315</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>42</v>
+        <v>317</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11401,22 +11448,20 @@
         <v>42</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>393</v>
+        <v>352</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>42</v>
@@ -11465,7 +11510,7 @@
         <v>42</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>43</v>
@@ -11492,7 +11537,7 @@
         <v>42</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>42</v>
@@ -11500,7 +11545,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>394</v>
+        <v>353</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11511,7 +11556,7 @@
         <v>43</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>42</v>
@@ -11520,20 +11565,20 @@
         <v>42</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>395</v>
+        <v>53</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>397</v>
+        <v>355</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>398</v>
+        <v>356</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>42</v>
@@ -11582,13 +11627,13 @@
         <v>42</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>394</v>
+        <v>353</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>42</v>
@@ -11600,23 +11645,1669 @@
         <v>42</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK88" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AL86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM86" t="s" s="2">
+      <c r="AL88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM100" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="AN86" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AO86" t="s" s="2">
+      <c r="AN100" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AO100" t="s" s="2">
         <v>149</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO86">
+  <autoFilter ref="A1:AO100">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11626,7 +13317,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI85">
+  <conditionalFormatting sqref="A2:AI99">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/carin-rtpbc-Coverage.xlsx
+++ b/output/carin-rtpbc-Coverage.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$86</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3748" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="399">
   <si>
     <t>Path</t>
   </si>
@@ -616,7 +616,7 @@
     <t>Coverage.payor</t>
   </si>
   <si>
-    <t>Payer ID or Ref (TBD)</t>
+    <t>Payer ID</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Organization|Patient|RelatedPerson)
@@ -721,9 +721,6 @@
   </si>
   <si>
     <t>Coverage.payor.identifier</t>
-  </si>
-  <si>
-    <t>Payer ID</t>
   </si>
   <si>
     <t>Payer ID as defined in the participants' environment. E.g., an identifier defined in an eligibility service to represent the payer.</t>
@@ -804,7 +801,7 @@
     <t>Coverage.payor.identifier.system</t>
   </si>
   <si>
-    <t>Payer ID System (TBD)</t>
+    <t>The namespace for the identifier value</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
@@ -923,7 +920,7 @@
 </t>
   </si>
   <si>
-    <t>Identifiers used by the payer/PBM to located the patient's coverage. IIN (BIN) number, Processor Control Number (PCN), pharmacy benefit Group ID and patient's PBM Member ID. When returned by a discount pricing source, used to convey coupon information (either an issued discount coupon or a key that can be used to request a discount coupon).</t>
+    <t>Identifiers used by the payer/PBM to located the patient's coverage. IIN (BIN) number, Processor Control Number (PCN), pharmacy benefit Group ID and patient's PBM Member ID.</t>
   </si>
   <si>
     <t>Populate with identifiers retrieved from an eligibility service or other source agreed between trading partners</t>
@@ -974,10 +971,10 @@
     <t>The insurer issued label for a specific health card value.</t>
   </si>
   <si>
-    <t>Expanded Coverage Class Value Set (incl coupon concepts)</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/carin/ValueSet/rtpbc-expanded-coverage-class</t>
+    <t>Coverage Class Codes</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/coverage-class</t>
   </si>
   <si>
     <t>Coverage.class.value</t>
@@ -1039,9 +1036,6 @@
     <t>The policy classifications, eg. Group, Plan, Class, etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/coverage-class</t>
-  </si>
-  <si>
     <t>pcn</t>
   </si>
   <si>
@@ -1086,40 +1080,6 @@
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/coverage-class"/&gt;
     &lt;code value="rxid"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>coupon-request</t>
-  </si>
-  <si>
-    <t>Coupon Request</t>
-  </si>
-  <si>
-    <t>A key used to request a discount coupon.</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin/CodeSystem/rtpbc-coupon-coverage-class"/&gt;
-    &lt;code value="coupon-request"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>coupon</t>
-  </si>
-  <si>
-    <t>Coupon</t>
-  </si>
-  <si>
-    <t>A discount coupon.</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin/CodeSystem/rtpbc-coupon-coverage-class"/&gt;
-    &lt;code value="coupon"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1458,7 +1418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO100"/>
+  <dimension ref="A1:AO86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1491,10 +1451,10 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="140.14453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.00390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.75" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="161.5234375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.58984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -4470,7 +4430,7 @@
         <v>42</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="E26" t="s" s="2">
         <v>43</v>
@@ -4491,13 +4451,13 @@
         <v>109</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4547,7 +4507,7 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4565,7 +4525,7 @@
         <v>42</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>42</v>
@@ -4582,7 +4542,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4697,7 +4657,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4814,7 +4774,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4840,16 +4800,16 @@
         <v>71</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
@@ -4877,28 +4837,28 @@
         <v>125</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4916,7 +4876,7 @@
         <v>42</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>42</v>
@@ -4933,7 +4893,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4959,16 +4919,16 @@
         <v>132</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>42</v>
@@ -4996,28 +4956,28 @@
         <v>179</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="Y30" t="s" s="2">
+      <c r="Z30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5035,7 +4995,7 @@
         <v>42</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>42</v>
@@ -5044,7 +5004,7 @@
         <v>42</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>42</v>
@@ -5052,15 +5012,13 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D31" t="s" s="2">
-        <v>253</v>
-      </c>
+      <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>43</v>
       </c>
@@ -5080,16 +5038,16 @@
         <v>65</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
@@ -5102,43 +5060,43 @@
         <v>42</v>
       </c>
       <c r="S31" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5156,16 +5114,16 @@
         <v>42</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>42</v>
@@ -5173,14 +5131,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E32" t="s" s="2">
         <v>51</v>
@@ -5201,13 +5159,13 @@
         <v>53</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5221,43 +5179,43 @@
         <v>42</v>
       </c>
       <c r="S32" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5275,16 +5233,16 @@
         <v>42</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>42</v>
@@ -5292,7 +5250,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5318,10 +5276,10 @@
         <v>184</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5372,7 +5330,7 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5390,16 +5348,16 @@
         <v>42</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>42</v>
@@ -5407,7 +5365,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5430,16 +5388,16 @@
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5489,7 +5447,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5507,16 +5465,16 @@
         <v>42</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>42</v>
@@ -5524,7 +5482,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5550,13 +5508,13 @@
         <v>53</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5606,7 +5564,7 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5641,20 +5599,20 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D36" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="E36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="E36" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F36" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>52</v>
@@ -5666,19 +5624,19 @@
         <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="K36" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5715,19 +5673,19 @@
         <v>42</v>
       </c>
       <c r="AA36" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD36" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AB36" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="AE36" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5762,7 +5720,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5877,7 +5835,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5994,11 +5952,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6020,10 +5978,10 @@
         <v>97</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>100</v>
@@ -6078,7 +6036,7 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6113,7 +6071,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6139,14 +6097,14 @@
         <v>132</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -6174,11 +6132,11 @@
         <v>179</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>309</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>42</v>
       </c>
@@ -6195,7 +6153,7 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>51</v>
@@ -6230,7 +6188,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6256,16 +6214,16 @@
         <v>53</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -6314,7 +6272,7 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>51</v>
@@ -6338,18 +6296,18 @@
         <v>42</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>317</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6375,14 +6333,14 @@
         <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
@@ -6431,7 +6389,7 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6455,27 +6413,27 @@
         <v>42</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AN42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>317</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B43" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D43" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="E43" t="s" s="2">
         <v>43</v>
@@ -6493,19 +6451,19 @@
         <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>325</v>
-      </c>
       <c r="N43" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>42</v>
@@ -6554,7 +6512,7 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6589,7 +6547,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6704,7 +6662,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6821,11 +6779,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6847,10 +6805,10 @@
         <v>97</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>100</v>
@@ -6905,7 +6863,7 @@
         <v>42</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6940,7 +6898,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6966,14 +6924,14 @@
         <v>132</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>42</v>
@@ -6983,7 +6941,7 @@
         <v>42</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>42</v>
@@ -7001,10 +6959,10 @@
         <v>179</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>42</v>
@@ -7022,7 +6980,7 @@
         <v>42</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>51</v>
@@ -7057,7 +7015,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7083,16 +7041,16 @@
         <v>53</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
@@ -7141,7 +7099,7 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>51</v>
@@ -7165,18 +7123,18 @@
         <v>42</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AN48" t="s" s="2">
+      <c r="AO48" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>317</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7202,14 +7160,14 @@
         <v>53</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -7258,7 +7216,7 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7282,27 +7240,27 @@
         <v>42</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AN49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>317</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E50" t="s" s="2">
         <v>43</v>
@@ -7320,19 +7278,19 @@
         <v>42</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>325</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
@@ -7381,7 +7339,7 @@
         <v>42</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7416,7 +7374,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7531,7 +7489,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7648,11 +7606,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7674,10 +7632,10 @@
         <v>97</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>100</v>
@@ -7732,7 +7690,7 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7767,7 +7725,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7793,14 +7751,14 @@
         <v>132</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>42</v>
@@ -7810,7 +7768,7 @@
         <v>42</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>42</v>
@@ -7828,10 +7786,10 @@
         <v>179</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>42</v>
@@ -7849,7 +7807,7 @@
         <v>42</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>51</v>
@@ -7884,7 +7842,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7910,16 +7868,16 @@
         <v>53</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>42</v>
@@ -7968,7 +7926,7 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>51</v>
@@ -7992,18 +7950,18 @@
         <v>42</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>317</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8029,14 +7987,14 @@
         <v>53</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>42</v>
@@ -8085,7 +8043,7 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8109,27 +8067,27 @@
         <v>42</v>
       </c>
       <c r="AM56" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>317</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E57" t="s" s="2">
         <v>43</v>
@@ -8147,19 +8105,19 @@
         <v>42</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>42</v>
@@ -8208,7 +8166,7 @@
         <v>42</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8243,7 +8201,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8358,7 +8316,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8475,11 +8433,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8501,10 +8459,10 @@
         <v>97</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>100</v>
@@ -8559,7 +8517,7 @@
         <v>42</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8594,7 +8552,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8620,14 +8578,14 @@
         <v>132</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>42</v>
@@ -8637,7 +8595,7 @@
         <v>42</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>42</v>
@@ -8655,10 +8613,10 @@
         <v>179</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>42</v>
@@ -8676,7 +8634,7 @@
         <v>42</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>51</v>
@@ -8711,7 +8669,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8737,16 +8695,16 @@
         <v>53</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>42</v>
@@ -8795,7 +8753,7 @@
         <v>42</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>51</v>
@@ -8819,18 +8777,18 @@
         <v>42</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>317</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8856,14 +8814,14 @@
         <v>53</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>42</v>
@@ -8912,7 +8870,7 @@
         <v>42</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -8936,27 +8894,27 @@
         <v>42</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AN63" t="s" s="2">
+      <c r="AO63" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>317</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E64" t="s" s="2">
         <v>43</v>
@@ -8974,19 +8932,19 @@
         <v>42</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>42</v>
@@ -9035,7 +8993,7 @@
         <v>42</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9070,7 +9028,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9185,7 +9143,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9302,11 +9260,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9328,10 +9286,10 @@
         <v>97</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>100</v>
@@ -9386,7 +9344,7 @@
         <v>42</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9421,7 +9379,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9447,14 +9405,14 @@
         <v>132</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>42</v>
@@ -9464,7 +9422,7 @@
         <v>42</v>
       </c>
       <c r="R68" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>42</v>
@@ -9482,10 +9440,10 @@
         <v>179</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>42</v>
@@ -9503,7 +9461,7 @@
         <v>42</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>51</v>
@@ -9538,7 +9496,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9564,16 +9522,16 @@
         <v>53</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>42</v>
@@ -9622,7 +9580,7 @@
         <v>42</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>51</v>
@@ -9646,18 +9604,18 @@
         <v>42</v>
       </c>
       <c r="AM69" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AN69" t="s" s="2">
+      <c r="AO69" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>317</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9683,14 +9641,14 @@
         <v>53</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>42</v>
@@ -9739,7 +9697,7 @@
         <v>42</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -9763,57 +9721,51 @@
         <v>42</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AN70" t="s" s="2">
+      <c r="AO70" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AO70" t="s" s="2">
-        <v>317</v>
-      </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="B71" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="E71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M71" t="s" s="2">
+      <c r="M71" s="2"/>
+      <c r="N71" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>42</v>
@@ -9862,13 +9814,13 @@
         <v>42</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>42</v>
@@ -9889,7 +9841,7 @@
         <v>42</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>42</v>
@@ -9897,7 +9849,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>297</v>
+        <v>343</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9917,19 +9869,21 @@
         <v>42</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>203</v>
+        <v>344</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>204</v>
+        <v>345</v>
       </c>
       <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>42</v>
       </c>
@@ -9977,7 +9931,7 @@
         <v>42</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>205</v>
+        <v>343</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -9989,19 +9943,19 @@
         <v>42</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>42</v>
+        <v>347</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>42</v>
@@ -10012,11 +9966,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>96</v>
+        <v>349</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10035,18 +9989,20 @@
         <v>42</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>97</v>
+        <v>290</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>98</v>
+        <v>350</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>208</v>
+        <v>351</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>42</v>
       </c>
@@ -10094,7 +10050,7 @@
         <v>42</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>212</v>
+        <v>348</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10106,13 +10062,13 @@
         <v>42</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>42</v>
@@ -10129,43 +10085,39 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>299</v>
+        <v>354</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>300</v>
+        <v>42</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>301</v>
+        <v>203</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>42</v>
       </c>
@@ -10213,25 +10165,25 @@
         <v>42</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>303</v>
+        <v>205</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>42</v>
@@ -10248,18 +10200,18 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>304</v>
+        <v>355</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>42</v>
@@ -10268,21 +10220,21 @@
         <v>42</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>305</v>
+        <v>98</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>42</v>
       </c>
@@ -10291,7 +10243,7 @@
         <v>42</v>
       </c>
       <c r="R75" t="s" s="2">
-        <v>343</v>
+        <v>42</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>42</v>
@@ -10306,13 +10258,13 @@
         <v>42</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>327</v>
+        <v>42</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>328</v>
+        <v>42</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>42</v>
@@ -10330,25 +10282,25 @@
         <v>42</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>304</v>
+        <v>212</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>42</v>
@@ -10365,42 +10317,42 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>42</v>
+        <v>299</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>313</v>
+        <v>100</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>314</v>
+        <v>106</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>42</v>
@@ -10449,42 +10401,42 @@
         <v>42</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>315</v>
+        <v>42</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>316</v>
+        <v>42</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>317</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10507,17 +10459,19 @@
         <v>52</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="N77" t="s" s="2">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>42</v>
@@ -10542,13 +10496,13 @@
         <v>42</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>42</v>
+        <v>362</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>42</v>
+        <v>363</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>42</v>
@@ -10566,7 +10520,7 @@
         <v>42</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
@@ -10590,57 +10544,53 @@
         <v>42</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>315</v>
+        <v>42</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>316</v>
+        <v>42</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>317</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D78" t="s" s="2">
-        <v>345</v>
-      </c>
+      <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I78" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J78" t="s" s="2">
-        <v>291</v>
+        <v>365</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>42</v>
@@ -10689,13 +10639,13 @@
         <v>42</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>288</v>
+        <v>364</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>42</v>
@@ -10713,18 +10663,18 @@
         <v>42</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>42</v>
+        <v>314</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>42</v>
+        <v>315</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>42</v>
+        <v>316</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>297</v>
+        <v>370</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10735,7 +10685,7 @@
         <v>43</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>42</v>
@@ -10747,16 +10697,18 @@
         <v>42</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>53</v>
+        <v>290</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>203</v>
+        <v>371</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>204</v>
+        <v>372</v>
       </c>
       <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+      <c r="N79" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>42</v>
       </c>
@@ -10804,25 +10756,25 @@
         <v>42</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>205</v>
+        <v>370</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>42</v>
@@ -10839,18 +10791,18 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>298</v>
+        <v>373</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>42</v>
@@ -10862,17 +10814,15 @@
         <v>42</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>42</v>
@@ -10921,19 +10871,19 @@
         <v>42</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>42</v>
@@ -10956,11 +10906,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>299</v>
+        <v>374</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>300</v>
+        <v>96</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10973,26 +10923,24 @@
         <v>42</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J81" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>301</v>
+        <v>98</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>302</v>
+        <v>208</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="N81" t="s" s="2">
-        <v>106</v>
-      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>42</v>
       </c>
@@ -11040,7 +10988,7 @@
         <v>42</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>303</v>
+        <v>212</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
@@ -11058,7 +11006,7 @@
         <v>42</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>42</v>
@@ -11075,40 +11023,42 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>304</v>
+        <v>375</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>42</v>
+        <v>299</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N82" t="s" s="2">
-        <v>307</v>
+        <v>106</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>42</v>
@@ -11118,7 +11068,7 @@
         <v>42</v>
       </c>
       <c r="R82" t="s" s="2">
-        <v>347</v>
+        <v>42</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>42</v>
@@ -11133,13 +11083,13 @@
         <v>42</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>327</v>
+        <v>42</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>328</v>
+        <v>42</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>42</v>
@@ -11157,25 +11107,25 @@
         <v>42</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>42</v>
@@ -11192,7 +11142,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>310</v>
+        <v>376</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11215,19 +11165,17 @@
         <v>52</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>311</v>
+        <v>377</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>314</v>
+        <v>379</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>42</v>
@@ -11252,13 +11200,13 @@
         <v>42</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>42</v>
+        <v>380</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>42</v>
+        <v>381</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>42</v>
+        <v>382</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>42</v>
@@ -11276,7 +11224,7 @@
         <v>42</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>310</v>
+        <v>376</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>51</v>
@@ -11300,18 +11248,18 @@
         <v>42</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>315</v>
+        <v>42</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>316</v>
+        <v>42</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>317</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>318</v>
+        <v>383</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11334,17 +11282,17 @@
         <v>52</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>319</v>
+        <v>384</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>320</v>
+        <v>385</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>321</v>
+        <v>386</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>42</v>
@@ -11393,7 +11341,7 @@
         <v>42</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>318</v>
+        <v>383</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -11417,18 +11365,18 @@
         <v>42</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>315</v>
+        <v>42</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>316</v>
+        <v>42</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>317</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11448,20 +11396,22 @@
         <v>42</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="N85" t="s" s="2">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>42</v>
@@ -11510,7 +11460,7 @@
         <v>42</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>43</v>
@@ -11537,7 +11487,7 @@
         <v>42</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>42</v>
@@ -11545,7 +11495,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11556,7 +11506,7 @@
         <v>43</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>42</v>
@@ -11565,20 +11515,20 @@
         <v>42</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>53</v>
+        <v>394</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>42</v>
@@ -11627,13 +11577,13 @@
         <v>42</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>42</v>
@@ -11645,1669 +11595,23 @@
         <v>42</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>357</v>
+        <v>147</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>42</v>
+        <v>398</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M97" s="2"/>
-      <c r="N97" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M100" s="2"/>
-      <c r="N100" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AO100" t="s" s="2">
         <v>149</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO100">
+  <autoFilter ref="A1:AO86">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13317,7 +11621,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI99">
+  <conditionalFormatting sqref="A2:AI85">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/carin-rtpbc-Coverage.xlsx
+++ b/output/carin-rtpbc-Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="397">
   <si>
     <t>Path</t>
   </si>
@@ -913,9 +913,6 @@
     <t>Pharmacy coverage identifiers</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t xml:space="preserve">BackboneElement
 </t>
   </si>
@@ -931,9 +928,6 @@
   <si>
     <t xml:space="preserve">value:type}
 </t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t>Coverage.class.id</t>
@@ -1050,7 +1044,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>group-id</t>
+    <t>rxgroup-id</t>
   </si>
   <si>
     <t>Pharmacy Benefit Group ID</t>
@@ -1062,7 +1056,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/coverage-class"/&gt;
-    &lt;code value="group"/&gt;
+    &lt;code value="rxgroup"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -5612,7 +5606,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>289</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>52</v>
@@ -5624,19 +5618,19 @@
         <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>288</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5673,16 +5667,16 @@
         <v>42</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>295</v>
+        <v>211</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>287</v>
@@ -5720,7 +5714,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5835,7 +5829,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5952,11 +5946,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5978,10 +5972,10 @@
         <v>97</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>100</v>
@@ -6036,7 +6030,7 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6071,7 +6065,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6097,14 +6091,14 @@
         <v>132</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -6132,10 +6126,10 @@
         <v>179</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>42</v>
@@ -6153,7 +6147,7 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>51</v>
@@ -6188,7 +6182,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6214,16 +6208,16 @@
         <v>53</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -6272,7 +6266,7 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>51</v>
@@ -6296,18 +6290,18 @@
         <v>42</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AO41" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>316</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6333,14 +6327,14 @@
         <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
@@ -6389,7 +6383,7 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6413,13 +6407,13 @@
         <v>42</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AO42" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>316</v>
       </c>
     </row>
     <row r="43">
@@ -6427,13 +6421,13 @@
         <v>287</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E43" t="s" s="2">
         <v>43</v>
@@ -6451,19 +6445,19 @@
         <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="N43" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>42</v>
@@ -6547,7 +6541,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6662,7 +6656,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6779,11 +6773,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6805,10 +6799,10 @@
         <v>97</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>100</v>
@@ -6863,7 +6857,7 @@
         <v>42</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6898,7 +6892,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6924,14 +6918,14 @@
         <v>132</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>42</v>
@@ -6941,7 +6935,7 @@
         <v>42</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>42</v>
@@ -6959,10 +6953,10 @@
         <v>179</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>42</v>
@@ -6980,7 +6974,7 @@
         <v>42</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>51</v>
@@ -7015,7 +7009,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7041,16 +7035,16 @@
         <v>53</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
@@ -7099,7 +7093,7 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>51</v>
@@ -7123,18 +7117,18 @@
         <v>42</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>316</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7160,14 +7154,14 @@
         <v>53</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -7216,7 +7210,7 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7240,13 +7234,13 @@
         <v>42</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>316</v>
       </c>
     </row>
     <row r="50">
@@ -7254,13 +7248,13 @@
         <v>287</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E50" t="s" s="2">
         <v>43</v>
@@ -7278,19 +7272,19 @@
         <v>42</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
@@ -7374,7 +7368,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7489,7 +7483,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7606,11 +7600,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7632,10 +7626,10 @@
         <v>97</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>100</v>
@@ -7690,7 +7684,7 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7725,7 +7719,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7751,14 +7745,14 @@
         <v>132</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>42</v>
@@ -7768,7 +7762,7 @@
         <v>42</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>42</v>
@@ -7786,10 +7780,10 @@
         <v>179</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>42</v>
@@ -7807,7 +7801,7 @@
         <v>42</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>51</v>
@@ -7842,7 +7836,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7868,16 +7862,16 @@
         <v>53</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>42</v>
@@ -7926,7 +7920,7 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>51</v>
@@ -7950,18 +7944,18 @@
         <v>42</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AO55" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>316</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7987,14 +7981,14 @@
         <v>53</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>42</v>
@@ -8043,7 +8037,7 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8067,13 +8061,13 @@
         <v>42</v>
       </c>
       <c r="AM56" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AO56" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>316</v>
       </c>
     </row>
     <row r="57">
@@ -8081,13 +8075,13 @@
         <v>287</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E57" t="s" s="2">
         <v>43</v>
@@ -8105,19 +8099,19 @@
         <v>42</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>42</v>
@@ -8201,7 +8195,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8316,7 +8310,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8433,11 +8427,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8459,10 +8453,10 @@
         <v>97</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>100</v>
@@ -8517,7 +8511,7 @@
         <v>42</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8552,7 +8546,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8578,14 +8572,14 @@
         <v>132</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>42</v>
@@ -8595,7 +8589,7 @@
         <v>42</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>42</v>
@@ -8613,10 +8607,10 @@
         <v>179</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>42</v>
@@ -8634,7 +8628,7 @@
         <v>42</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>51</v>
@@ -8669,7 +8663,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8695,16 +8689,16 @@
         <v>53</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>42</v>
@@ -8753,7 +8747,7 @@
         <v>42</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>51</v>
@@ -8777,18 +8771,18 @@
         <v>42</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AO62" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>316</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8814,14 +8808,14 @@
         <v>53</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>42</v>
@@ -8870,7 +8864,7 @@
         <v>42</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -8894,13 +8888,13 @@
         <v>42</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>316</v>
       </c>
     </row>
     <row r="64">
@@ -8908,13 +8902,13 @@
         <v>287</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E64" t="s" s="2">
         <v>43</v>
@@ -8932,19 +8926,19 @@
         <v>42</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>42</v>
@@ -9028,7 +9022,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9143,7 +9137,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9260,11 +9254,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9286,10 +9280,10 @@
         <v>97</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>100</v>
@@ -9344,7 +9338,7 @@
         <v>42</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9379,7 +9373,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9405,14 +9399,14 @@
         <v>132</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>42</v>
@@ -9422,7 +9416,7 @@
         <v>42</v>
       </c>
       <c r="R68" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>42</v>
@@ -9440,10 +9434,10 @@
         <v>179</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>42</v>
@@ -9461,7 +9455,7 @@
         <v>42</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>51</v>
@@ -9496,7 +9490,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9522,16 +9516,16 @@
         <v>53</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>42</v>
@@ -9580,7 +9574,7 @@
         <v>42</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>51</v>
@@ -9604,18 +9598,18 @@
         <v>42</v>
       </c>
       <c r="AM69" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AO69" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>316</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9641,14 +9635,14 @@
         <v>53</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>42</v>
@@ -9697,7 +9691,7 @@
         <v>42</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -9721,18 +9715,18 @@
         <v>42</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AO70" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>316</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9755,17 +9749,17 @@
         <v>52</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>42</v>
@@ -9814,7 +9808,7 @@
         <v>42</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -9849,7 +9843,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9875,14 +9869,14 @@
         <v>53</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>42</v>
@@ -9931,7 +9925,7 @@
         <v>42</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -9955,7 +9949,7 @@
         <v>42</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>42</v>
@@ -9966,11 +9960,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9989,19 +9983,19 @@
         <v>42</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>42</v>
@@ -10050,7 +10044,7 @@
         <v>42</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10085,7 +10079,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10200,7 +10194,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10317,11 +10311,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10343,10 +10337,10 @@
         <v>97</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M76" t="s" s="2">
         <v>100</v>
@@ -10401,7 +10395,7 @@
         <v>42</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -10436,7 +10430,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10462,16 +10456,16 @@
         <v>132</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>42</v>
@@ -10499,10 +10493,10 @@
         <v>179</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>42</v>
@@ -10520,7 +10514,7 @@
         <v>42</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
@@ -10555,7 +10549,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10578,19 +10572,19 @@
         <v>52</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>42</v>
@@ -10639,7 +10633,7 @@
         <v>42</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>51</v>
@@ -10663,18 +10657,18 @@
         <v>42</v>
       </c>
       <c r="AM78" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AO78" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>316</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10697,17 +10691,17 @@
         <v>42</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>42</v>
@@ -10756,7 +10750,7 @@
         <v>42</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -10791,7 +10785,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10906,7 +10900,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11023,11 +11017,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11049,10 +11043,10 @@
         <v>97</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>100</v>
@@ -11107,7 +11101,7 @@
         <v>42</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
@@ -11142,7 +11136,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11168,14 +11162,14 @@
         <v>132</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>42</v>
@@ -11200,14 +11194,14 @@
         <v>42</v>
       </c>
       <c r="W83" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="Y83" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="X83" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>382</v>
-      </c>
       <c r="Z83" t="s" s="2">
         <v>42</v>
       </c>
@@ -11224,7 +11218,7 @@
         <v>42</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>51</v>
@@ -11259,7 +11253,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11285,14 +11279,14 @@
         <v>184</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>42</v>
@@ -11341,7 +11335,7 @@
         <v>42</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -11376,7 +11370,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11399,19 +11393,19 @@
         <v>42</v>
       </c>
       <c r="J85" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="K85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>42</v>
@@ -11460,7 +11454,7 @@
         <v>42</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>43</v>
@@ -11495,7 +11489,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11518,17 +11512,17 @@
         <v>42</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>42</v>
@@ -11577,7 +11571,7 @@
         <v>42</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
@@ -11604,7 +11598,7 @@
         <v>147</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>149</v>
